--- a/Document.xlsx
+++ b/Document.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="88">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>property</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>筹备中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,6 +367,14 @@
   </si>
   <si>
     <t>敌群编辑控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringlist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,17 +442,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -770,20 +760,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G30" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G30" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G30"/>
   <sortState ref="A2:G30">
     <sortCondition descending="1" ref="C2:C30"/>
     <sortCondition ref="F2:F30"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" totalsRowLabel="汇总" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="2" name="控件ID" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="3" name="空间" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="4" name="值" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="5" name="效用" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="6" name="进度" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="备注" totalsRowFunction="count" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="ID" totalsRowLabel="汇总" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" name="控件ID" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" name="空间" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" name="值" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" name="效用" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="进度" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="备注" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1055,7 +1045,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" activeCellId="1" sqref="E14 E14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1117,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1126,7 +1116,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -1138,19 +1128,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1159,19 +1149,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1180,19 +1170,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1201,19 +1191,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1222,19 +1212,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1243,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1252,10 +1242,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1264,19 +1254,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1285,19 +1275,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1306,19 +1296,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1327,7 +1317,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -1336,10 +1326,10 @@
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1360,16 +1350,18 @@
         <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -1378,31 +1370,33 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1411,19 +1405,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1432,19 +1426,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1453,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -1462,13 +1456,13 @@
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1476,7 +1470,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1485,10 +1479,10 @@
         <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1560,7 +1554,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1569,7 +1563,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1627,7 +1621,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -1636,7 +1630,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1657,7 +1651,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1669,7 +1663,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
@@ -1678,13 +1672,13 @@
         <v>30</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -1692,7 +1686,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
@@ -1701,7 +1695,7 @@
         <v>17</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1711,10 +1705,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:F30">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="构想中">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="构想中">
       <formula>NOT(ISERROR(SEARCH("构想中",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
